--- a/BalanceSheet/BXP_bal.xlsx
+++ b/BalanceSheet/BXP_bal.xlsx
@@ -4819,7 +4819,7 @@
         <v>11630000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>11544000000.0</v>
+        <v>11686964000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>11255005000.0</v>
@@ -4946,7 +4946,7 @@
         <v>12489000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>12236000000.0</v>
+        <v>12378850000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>12059770000.0</v>
